--- a/inputcons/Recap_Categories.xlsx
+++ b/inputcons/Recap_Categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Mois</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Avril</t>
   </si>
   <si>
+    <t>Décembre</t>
+  </si>
+  <si>
     <t>Juillet</t>
   </si>
   <si>
@@ -43,10 +46,22 @@
     <t>Mai</t>
   </si>
   <si>
+    <t>Novembre</t>
+  </si>
+  <si>
     <t>Octobre</t>
   </si>
   <si>
     <t>Septembre</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Mars</t>
   </si>
   <si>
     <t>DRINK</t>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +459,7 @@
         <v>13871350</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,7 +473,7 @@
         <v>3497400</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,7 +487,7 @@
         <v>855000</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,7 +501,7 @@
         <v>2281460</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,7 +515,7 @@
         <v>525790</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,7 +529,7 @@
         <v>166200</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,10 +540,10 @@
         <v>2023</v>
       </c>
       <c r="C8">
-        <v>11641050</v>
+        <v>11558450</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,10 +554,10 @@
         <v>2023</v>
       </c>
       <c r="C9">
-        <v>3047575</v>
+        <v>4082816</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,10 +568,10 @@
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>782000</v>
+        <v>790000</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,10 +582,10 @@
         <v>2023</v>
       </c>
       <c r="C11">
-        <v>5414050</v>
+        <v>11641050</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -581,10 +596,10 @@
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>2538900</v>
+        <v>3047575</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -595,10 +610,10 @@
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>417600</v>
+        <v>782000</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -609,10 +624,10 @@
         <v>2023</v>
       </c>
       <c r="C14">
-        <v>3018750</v>
+        <v>5414050</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -623,10 +638,10 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <v>2368050</v>
+        <v>2538900</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -637,10 +652,10 @@
         <v>2023</v>
       </c>
       <c r="C16">
-        <v>322000</v>
+        <v>417600</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -651,10 +666,10 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>14205300</v>
+        <v>3018750</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -665,10 +680,10 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>3242900</v>
+        <v>2368050</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -679,10 +694,10 @@
         <v>2023</v>
       </c>
       <c r="C19">
-        <v>867500</v>
+        <v>322000</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -693,10 +708,10 @@
         <v>2023</v>
       </c>
       <c r="C20">
-        <v>11768250</v>
+        <v>12786850</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -707,10 +722,10 @@
         <v>2023</v>
       </c>
       <c r="C21">
-        <v>2752000</v>
+        <v>3574570</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -721,10 +736,262 @@
         <v>2023</v>
       </c>
       <c r="C22">
+        <v>791000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23">
+        <v>14205300</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>3242900</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>867500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>11768250</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>2752000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
         <v>697500</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29">
+        <v>7169850</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30">
+        <v>2979225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31">
+        <v>620000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>13</v>
+      </c>
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32">
+        <v>10338450</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33">
+        <v>3345510</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34">
+        <v>697500</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35">
+        <v>13837500</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36">
+        <v>3707340</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37">
+        <v>775000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38">
+        <v>10630850</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39">
+        <v>3208190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>2024</v>
+      </c>
+      <c r="C40">
+        <v>775000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
